--- a/biology/Médecine/Emmanuel_Régis/Emmanuel_Régis.xlsx
+++ b/biology/Médecine/Emmanuel_Régis/Emmanuel_Régis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emmanuel_R%C3%A9gis</t>
+          <t>Emmanuel_Régis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuel Régis, né le 29 avril 1855 à Auterive en Haute-Garonne et mort à Bordeaux le 21 juin 1918, est un psychiatre français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emmanuel_R%C3%A9gis</t>
+          <t>Emmanuel_Régis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmanuel Régis fait ses études de médecine à Paris et devient médecin adjoint à l'hôpital Saint-Anne. Il est chargé de cours en 1892 à la faculté de médecine de Bordeaux à la demande d'Albert Pitres et nommé titulaire de la chaire de pathologie mentale de 1913, fonction qu'il occupe jusqu'à sa mort en 1918[1]. Il s'intéresse particulièrement à la psychologie criminelle et aux maladies mentales.
-Il s'intéresse aux théories freudiennes sur lesquelles il portera en définitive un jugement négatif[1], mais il lit avec Angelo Hesnard et le frère de celui-ci, germaniste, les œuvres complètes de Freud en allemand, lecture qui aboutit à un article, « La doctrine de Freud et de son école », publié dans L'Encéphale en 1913 et un ouvrage, La Psychoanalyse des névroses et des psychoses, en 1914[1].
-Il est créateur de la neuropsychiatrie militaire de la Marine dans les années 1910[2][source insuffisante].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuel Régis fait ses études de médecine à Paris et devient médecin adjoint à l'hôpital Saint-Anne. Il est chargé de cours en 1892 à la faculté de médecine de Bordeaux à la demande d'Albert Pitres et nommé titulaire de la chaire de pathologie mentale de 1913, fonction qu'il occupe jusqu'à sa mort en 1918. Il s'intéresse particulièrement à la psychologie criminelle et aux maladies mentales.
+Il s'intéresse aux théories freudiennes sur lesquelles il portera en définitive un jugement négatif, mais il lit avec Angelo Hesnard et le frère de celui-ci, germaniste, les œuvres complètes de Freud en allemand, lecture qui aboutit à un article, « La doctrine de Freud et de son école », publié dans L'Encéphale en 1913 et un ouvrage, La Psychoanalyse des névroses et des psychoses, en 1914.
+Il est créateur de la neuropsychiatrie militaire de la Marine dans les années 1910[source insuffisante].
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emmanuel_R%C3%A9gis</t>
+          <t>Emmanuel_Régis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Troubles de la personnalité dans les états d'asthénie psychique, Paris, 1909
 La dromomanie de Jean-Jacques Rousseau, Paris, 1910 (lire en ligne)
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emmanuel_R%C3%A9gis</t>
+          <t>Emmanuel_Régis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est fait chevalier de la Légion d'honneur en 1903[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est fait chevalier de la Légion d'honneur en 1903.
 Une unité de l'hôpital Charles-Perrens de Bordeaux porte son nom.[réf. nécessaire]
 </t>
         </is>
